--- a/biology/Botanique/Rosa_macrophylla/Rosa_macrophylla.xlsx
+++ b/biology/Botanique/Rosa_macrophylla/Rosa_macrophylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa macrophylla est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier de la section des Cinnamomeae originaire de l'Himalaya; On le rencontre à des altitudes comprises entre 2400 et 3700 mètres d'altitude en Chine (région autonome du Tibet, Yunnan), au Bhoutan, en Inde, au Cachemire et au Sikkim.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste de 2 à 5 mètres de haut, aux tiges lisses de couleur pourpre et longues feuilles (20 cm) de 7 à 9 folioles ovales, de couleur verte à reflets pourprés.
-Les fleurs simples, d'un diamètre de 5 cm, rose lilas, donnent des  grands fruits de couleur orange, en forme de bouteille[1]., pouvant atteindre 7,5 cm de long. C'est le rosier qui a les fruits les plus gros[2].
+Les fleurs simples, d'un diamètre de 5 cm, rose lilas, donnent des  grands fruits de couleur orange, en forme de bouteille., pouvant atteindre 7,5 cm de long. C'est le rosier qui a les fruits les plus gros.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Variétés et hybrides cultivés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rosa macrophylla 'Glaucescens' (Hillier)
 Rosa macrophylla 'Rubricaulis' (Hillier)
